--- a/demo/Temperatures.xlsx
+++ b/demo/Temperatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Coding/Epistasis_Calculator/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012CE037-03BE-C44D-8EA7-5BCE02910308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24746B1-2106-0C4E-B732-C820B015CBE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>H192P</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>69.3</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -456,12 +459,15 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
